--- a/PREGAME/1. ELICITACIÓN/1.3 Historias de Usuario/Historias de Usuario_G1_V06.xlsx
+++ b/PREGAME/1. ELICITACIÓN/1.3 Historias de Usuario/Historias de Usuario_G1_V06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\David\Universidad\Universidad\5 Semestre\Análisis y diseño\15035_G1_ADSW\PREGAME\1. ELICITACIÓN\1.3 Historias de Usuario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32639024-6EFA-466C-ABFE-3697F5874BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E19B21-F48E-4E97-A335-DB55E00BAD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20520" yWindow="2220" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato descripción HU" sheetId="1" r:id="rId1"/>
@@ -460,7 +460,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -512,6 +512,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,6 +889,27 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -892,6 +919,17 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -919,6 +957,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -927,56 +981,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1321,8 +1327,8 @@
   </sheetPr>
   <dimension ref="A1:P992"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1352,22 +1358,22 @@
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="28"/>
@@ -1433,53 +1439,53 @@
     </row>
     <row r="6" spans="1:16" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="28"/>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="79" t="s">
+      <c r="E6" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="83" t="s">
+      <c r="F6" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="84" t="s">
+      <c r="G6" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="81" t="s">
+      <c r="H6" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="81" t="s">
+      <c r="I6" s="46" t="s">
         <v>47</v>
       </c>
       <c r="J6" s="37">
         <v>45299</v>
       </c>
-      <c r="K6" s="81" t="s">
+      <c r="K6" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="81" t="s">
+      <c r="L6" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="79" t="s">
+      <c r="M6" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="80" t="s">
+      <c r="N6" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="80" t="s">
+      <c r="O6" s="45" t="s">
         <v>50</v>
       </c>
       <c r="P6" s="28"/>
     </row>
     <row r="7" spans="1:16" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="28"/>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="34" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="35" t="s">
@@ -1494,7 +1500,7 @@
       <c r="F7" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="85" t="s">
+      <c r="G7" s="49" t="s">
         <v>55</v>
       </c>
       <c r="H7" s="36" t="s">
@@ -1523,7 +1529,7 @@
     </row>
     <row r="8" spans="1:16" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="28"/>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="34" t="s">
         <v>59</v>
       </c>
       <c r="C8" s="35" t="s">
@@ -1538,7 +1544,7 @@
       <c r="F8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="85" t="s">
+      <c r="G8" s="49" t="s">
         <v>63</v>
       </c>
       <c r="H8" s="36" t="s">
@@ -1582,7 +1588,7 @@
       <c r="F9" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="85" t="s">
+      <c r="G9" s="49" t="s">
         <v>40</v>
       </c>
       <c r="H9" s="36" t="s">
@@ -1611,7 +1617,7 @@
     </row>
     <row r="10" spans="1:16" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="28"/>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="34" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="35" t="s">
@@ -1626,7 +1632,7 @@
       <c r="F10" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="85" t="s">
+      <c r="G10" s="49" t="s">
         <v>71</v>
       </c>
       <c r="H10" s="36" t="s">
@@ -1670,7 +1676,7 @@
       <c r="F11" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="85" t="s">
+      <c r="G11" s="49" t="s">
         <v>79</v>
       </c>
       <c r="H11" s="36" t="s">
@@ -1698,7 +1704,7 @@
       <c r="P11" s="28"/>
     </row>
     <row r="12" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="85" t="s">
         <v>84</v>
       </c>
       <c r="C12" s="35" t="s">
@@ -1713,7 +1719,7 @@
       <c r="F12" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="85" t="s">
+      <c r="G12" s="49" t="s">
         <v>90</v>
       </c>
       <c r="H12" s="36" t="s">
@@ -7690,23 +7696,23 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="2:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="64"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="73"/>
     </row>
     <row r="7" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="8"/>
@@ -7746,15 +7752,15 @@
         <v>1</v>
       </c>
       <c r="D9" s="10"/>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="64"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="64"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
@@ -7769,17 +7775,17 @@
         <v>37</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="65" t="str">
+      <c r="E10" s="75" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O11,5,0)</f>
         <v>Stacey Valencia</v>
       </c>
-      <c r="F10" s="64"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="65" t="str">
+      <c r="H10" s="75" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O11,11,0)</f>
         <v>No iniciado</v>
       </c>
-      <c r="I10" s="64"/>
+      <c r="I10" s="73"/>
       <c r="J10" s="14"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -7811,15 +7817,15 @@
         <v>30</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="64"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="63" t="s">
+      <c r="H12" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="64"/>
+      <c r="I12" s="73"/>
       <c r="J12" s="14"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
@@ -7835,17 +7841,17 @@
         <v>6 horas</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="E13" s="65" t="str">
+      <c r="E13" s="75" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O11,10,0)</f>
         <v xml:space="preserve">Media </v>
       </c>
-      <c r="F13" s="64"/>
+      <c r="F13" s="73"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="65" t="str">
+      <c r="H13" s="75" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O11,7,0)</f>
         <v>Jairo Quilumbaquin</v>
       </c>
-      <c r="I13" s="64"/>
+      <c r="I13" s="73"/>
       <c r="J13" s="14"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
@@ -7873,70 +7879,70 @@
     </row>
     <row r="15" spans="2:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="26"/>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="48" t="str">
+      <c r="D15" s="62" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O11,3,0)</f>
         <v>Facilitar el seguimiento de la asistencia a clases.</v>
       </c>
-      <c r="E15" s="67"/>
+      <c r="E15" s="56"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="48" t="str">
+      <c r="H15" s="62" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O11,4,0)</f>
         <v>Implementar funciones que permitan al docente gestionar las asistencias y obtener registros de asistencia desde su menú.</v>
       </c>
-      <c r="I15" s="76"/>
-      <c r="J15" s="67"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="56"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="45" t="s">
+      <c r="L15" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="M15" s="48" t="str">
+      <c r="M15" s="62" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O11,6,0)</f>
         <v>1. El docente accede al menú.                                  2. Selecciona el curso que desea modificar asistencias                                                                 3. Modifica asistencias con un listado
 4. Selecciona la opción para obtener registros de asistencia.
 5. Visualiza la información detallada de la asistencia de los estudiantes.</v>
       </c>
-      <c r="N15" s="49"/>
-      <c r="O15" s="50"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="64"/>
       <c r="P15" s="27"/>
     </row>
     <row r="16" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="26"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="72"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="61"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="72"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="61"/>
       <c r="K16" s="11"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="67"/>
       <c r="P16" s="27"/>
     </row>
     <row r="17" spans="2:16" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="26"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="69"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="69"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="58"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="56"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="70"/>
       <c r="P17" s="27"/>
     </row>
     <row r="18" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7958,41 +7964,41 @@
     </row>
     <row r="19" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="26"/>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="57" t="str">
+      <c r="D19" s="56"/>
+      <c r="E19" s="79" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O11,14,0)</f>
         <v>Obtener Registro de Asistencia.</v>
       </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="59"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="81"/>
       <c r="P19" s="27"/>
     </row>
     <row r="20" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="26"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="62"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="84"/>
       <c r="P20" s="27"/>
     </row>
     <row r="21" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8014,64 +8020,64 @@
     </row>
     <row r="22" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="26"/>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="67"/>
-      <c r="E22" s="48" t="str">
+      <c r="D22" s="56"/>
+      <c r="E22" s="62" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O11,12,0)</f>
         <v>Se verifica que el docente pueda obtener registros de asistencia correctamente.
 Se comprueba que la información mostrada sea precisa y actualizada.</v>
       </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="50"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="64"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="70" t="s">
+      <c r="J22" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="67"/>
-      <c r="L22" s="75">
+      <c r="K22" s="56"/>
+      <c r="L22" s="76">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O11,13,0)</f>
         <v>0</v>
       </c>
-      <c r="M22" s="76"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="67"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="56"/>
       <c r="P22" s="27"/>
     </row>
     <row r="23" spans="2:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="26"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="53"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="67"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="72"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="61"/>
       <c r="P23" s="27"/>
     </row>
     <row r="24" spans="2:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="26"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="70"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="69"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="58"/>
       <c r="P24" s="27"/>
     </row>
     <row r="25" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9088,6 +9094,11 @@
     <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:O17"/>
+    <mergeCell ref="E19:O20"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="C22:D24"/>
@@ -9104,11 +9115,6 @@
     <mergeCell ref="D15:E17"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="H15:J17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:O17"/>
-    <mergeCell ref="E19:O20"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I11">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
